--- a/medicine/Enfance/Mailo_Junior/Mailo_Junior.xlsx
+++ b/medicine/Enfance/Mailo_Junior/Mailo_Junior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mailo Junior est une messagerie web à destination des 6-14 ans, également disponible via une application mobile. Le service est fourni par la messagerie française Mailo avec un modèle économique freemium[1].
+Mailo Junior est une messagerie web à destination des 6-14 ans, également disponible via une application mobile. Le service est fourni par la messagerie française Mailo avec un modèle économique freemium.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mailo Junior a été lancé en 2010 sous le nom NetCourrier Enfants[réf. souhaitée]. Il est devenu Net-C Junior[2] en 2012 puis Mailo Junior en 2019[3].
-En 2018, 15 000 enfants étaient inscrits[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mailo Junior a été lancé en 2010 sous le nom NetCourrier Enfants[réf. souhaitée]. Il est devenu Net-C Junior en 2012 puis Mailo Junior en 2019.
+En 2018, 15 000 enfants étaient inscrits.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fondateurs revendiquent la messagerie comme une alternative aux GAFAM[1]. 
-Les comptes sont ouverts par un parent. Celui-ci valide l'ajout de contacts avec lesquels le mineur pourra échanger. En cas d'envoi de courrier électronique par un tiers non présent dans la liste, le parent reçoit le contenu pour vérification. Il est possible de transformer le compte en version adulte sans contrôle parental[5]. D’autres fonctionnalités sont disponibles comme l'accès à des documents pédagogiques[4]. Deux interfaces sont proposées en fonction des tranches d'âge[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fondateurs revendiquent la messagerie comme une alternative aux GAFAM. 
+Les comptes sont ouverts par un parent. Celui-ci valide l'ajout de contacts avec lesquels le mineur pourra échanger. En cas d'envoi de courrier électronique par un tiers non présent dans la liste, le parent reçoit le contenu pour vérification. Il est possible de transformer le compte en version adulte sans contrôle parental. D’autres fonctionnalités sont disponibles comme l'accès à des documents pédagogiques. Deux interfaces sont proposées en fonction des tranches d'âge. 
 Mailo Junior est également décliné dans l'environnement scolaire sous le contrôle d'un enseignant.[réf. nécessaire]
 </t>
         </is>
